--- a/backend/projects/project-a-123-sunset-blvd/data/18_MISC_RANDOM/Old_Version_Budget_DELETE.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/18_MISC_RANDOM/Old_Version_Budget_DELETE.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OLD BUDGET" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OLD BUDGET" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +450,6 @@
           <t>THIS FILE IS OLD</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -477,11 +457,6 @@
           <t>DO NOT USE</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -511,6 +486,246 @@
       </c>
       <c r="B7" t="n">
         <v>650000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>29081</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19288</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>16751</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>32673</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>22285</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>31208</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>12403</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>42275</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>25416</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>22149</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>38427</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15659</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15012</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>26083</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>30727</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>27787</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>30165</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>25070</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>14141</v>
       </c>
     </row>
   </sheetData>
